--- a/devis.xlsx
+++ b/devis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Client:</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>N°</t>
-  </si>
-  <si>
-    <t>Signature</t>
   </si>
   <si>
     <r>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t xml:space="preserve">Prix totale </t>
+  </si>
+  <si>
+    <t>Signature / Cachet</t>
+  </si>
+  <si>
+    <t>dt</t>
   </si>
 </sst>
 </file>
@@ -446,6 +449,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -488,40 +503,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -836,69 +839,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="35.25">
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="35.25">
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="18.75">
       <c r="E8" s="4" t="s">
@@ -909,46 +912,46 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="18.75">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="I11" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="23.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3</v>
@@ -957,131 +960,131 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1090,34 +1093,40 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
@@ -1127,54 +1136,53 @@
     <row r="35" spans="1:5" ht="20.25">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="20.25">
-      <c r="C36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
+      <c r="B36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="C37" s="6"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="C38" s="6"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="C39" s="6"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="C40" s="6"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="C41" s="6"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="C42" s="6"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="D36:E42"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A1:C6"/>
     <mergeCell ref="D1:G6"/>
     <mergeCell ref="C7:E7"/>
